--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70311A96-1766-456A-9A75-DE2EF8160532}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C3B1B1-E27C-43BF-9782-76D938221412}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -69,9 +69,6 @@
       </rPr>
       <t>↓↓↓</t>
     </r>
-  </si>
-  <si>
-    <t>[no candidat]</t>
   </si>
   <si>
     <t>Total général &gt;</t>
@@ -1232,7 +1229,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1254,13 +1251,11 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
@@ -1284,10 +1279,10 @@
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="7">
@@ -1297,7 +1292,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="8">
@@ -1307,7 +1302,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="8">
@@ -1342,7 +1337,7 @@
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -1352,7 +1347,7 @@
         <v>46003</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="7">
@@ -1362,7 +1357,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="8">
@@ -1372,7 +1367,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="8">
@@ -1382,7 +1377,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="8">
@@ -1392,7 +1387,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="8">
@@ -1402,7 +1397,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="8">
@@ -1425,7 +1420,7 @@
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
@@ -1875,7 +1870,7 @@
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="12">
         <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C3B1B1-E27C-43BF-9782-76D938221412}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65047CD0-8762-4218-9F6A-5D40D564F003}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_MAGLIANI_LORENZO" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Total général &gt;</t>
-  </si>
-  <si>
-    <t>5.12.2025</t>
   </si>
   <si>
     <r>
@@ -141,6 +138,15 @@
   </si>
   <si>
     <t>J'ai rencontré un problème Majeur lors de la mise en place de l'application de test pour le rover et la manette, c'est pour cela que ça m'a pris autant de temps. Sinon dans la globalité de cette journée j'ai appris pas mal de choses et ça a été très utile pour mon développement professionnel</t>
+  </si>
+  <si>
+    <t>reprise en main du code mis en place la semaine précédente</t>
+  </si>
+  <si>
+    <t>C'était une journée plein de challenge, j'ai rencontré pas mal d'erreurs mais j'ai compris comment les résoudre.</t>
+  </si>
+  <si>
+    <t>intégration de java 17 au lieu de java 1.8 dans le projet</t>
   </si>
 </sst>
 </file>
@@ -486,108 +492,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1227,9 +1233,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1242,87 +1248,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36"/>
+      <c r="A6" s="20">
+        <v>45996</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1335,77 +1341,77 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>46003</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>46003</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1418,45 +1424,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>46009</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="7">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1465,47 +1477,55 @@
       </c>
       <c r="D26" s="9">
         <f>SUM(D21:D25)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="29">
+        <v>46010</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1514,47 +1534,47 @@
       </c>
       <c r="D33" s="9">
         <f>SUM(D28:D32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,43 +1587,43 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1616,43 +1636,43 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1665,43 +1685,43 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1714,43 +1734,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1763,43 +1783,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1812,43 +1832,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
@@ -1861,10 +1881,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
@@ -1874,19 +1894,91 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>10.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1898,78 +1990,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2084,6 +2104,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2296,15 +2325,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2317,6 +2337,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2335,14 +2363,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F303AF10-C062-4921-AAD3-DDA250C3D2FA}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3692D396-6F73-49D5-A24E-536C2142779A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -161,7 +161,16 @@
     <t>Malade</t>
   </si>
   <si>
-    <t>Cette semaine là j'ai été vraiment malade et je n'ai pas réussi à travailler et progresser dans le projet</t>
+    <t>Cette semaine là j'ai été vraiment malade et je n'ai pas réussi à travailler et progresser dans le projet, je n'arrivais même pas à bouger de mon lit et je me sentais vraiment fatigué</t>
+  </si>
+  <si>
+    <t>Mise à jour par rapport au travail effectué par l'équipe la semaine passée</t>
+  </si>
+  <si>
+    <t>Mise à jour documentation</t>
+  </si>
+  <si>
+    <t>Création du PowerPoint pour la présentation</t>
   </si>
 </sst>
 </file>
@@ -1272,9 +1281,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1703,22 +1712,36 @@
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="14">
+        <v>46037</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
@@ -1742,7 +1765,7 @@
       </c>
       <c r="D54" s="9">
         <f>SUM(D49:D53)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,7 +1978,7 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>21</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
+++ b/documentation/Lorenzo/3_1_Journal_Lorenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/lorenzo_magliani_studentfr_ch/Documents/Bureau/EMF/Documents EMF/Syntheses EMF/306/306-G3-SpeleoThink/documentation/Lorenzo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3692D396-6F73-49D5-A24E-536C2142779A}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D17CFD-A8C1-457E-B9FC-00DE8C5A3E08}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Création du PowerPoint pour la présentation</t>
+  </si>
+  <si>
+    <t>Préparation PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -516,132 +519,132 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1283,7 +1286,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,87 +1299,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1389,77 +1392,77 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1472,51 +1475,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="29">
         <v>46009</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1529,59 +1532,59 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="29">
         <v>46010</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1594,49 +1597,49 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="29">
         <v>46030</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1649,49 +1652,49 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="29">
         <v>46031</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1704,59 +1707,59 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+      <c r="A49" s="29">
         <v>46037</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1769,43 +1772,49 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="29">
+        <v>46038</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="7">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1814,47 +1823,47 @@
       </c>
       <c r="D61" s="9">
         <f>SUM(D56:D60)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1867,43 +1876,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1916,43 +1925,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
@@ -1965,10 +1974,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
@@ -1978,19 +1987,83 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D19+D26+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>24.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:C39"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B42:C46"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2002,70 +2075,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B35:C39"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B42:C46"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2180,6 +2189,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2392,15 +2410,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2413,6 +2422,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2431,14 +2448,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
